--- a/Solucao_Proposta_Grupo2.xlsx
+++ b/Solucao_Proposta_Grupo2.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fidel\Dropbox\Pos_Insper_DataScience\MDCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helio\OneDrive\Área de Trabalho\Git\PADS202401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FC719D-351C-46D4-8C74-212BECFE79CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F731C4-E22C-46D1-A7AC-463C9A37F6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{150A6D86-5B11-4FFE-A69D-1FC88399B86F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{150A6D86-5B11-4FFE-A69D-1FC88399B86F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Agrupado" sheetId="1" r:id="rId1"/>
+    <sheet name="Slides" sheetId="5" r:id="rId2"/>
+    <sheet name="Persona" sheetId="2" r:id="rId3"/>
+    <sheet name="Infos_Mercado" sheetId="3" r:id="rId4"/>
+    <sheet name="Memoria_Calculo" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="128">
   <si>
     <t>Vendedor</t>
   </si>
@@ -286,12 +290,301 @@
   <si>
     <t>- mais algum?????</t>
   </si>
+  <si>
+    <t>População das 3 maiores comunicades do RJ</t>
+  </si>
+  <si>
+    <t>https://wikifavelas.com.br/index.php/Rocinha#:~:text=De%20acordo%20com%20o%20Censo,contabilizavam%2098.319%20habitantes%2C%20em%202010.</t>
+  </si>
+  <si>
+    <t>Complexo do Alemão</t>
+  </si>
+  <si>
+    <t>https://wikifavelas.com.br/index.php/Complexo_do_Alem%C3%A3o#:~:text=Com%20uma%20popula%C3%A7%C3%A3o%20de%20cerca,Queiroz)%20e%20Morro%20do%20Alem%C3%A3o.</t>
+  </si>
+  <si>
+    <t>Complexo da Maré</t>
+  </si>
+  <si>
+    <t>https://noticias.uol.com.br/ultimas-noticias/agencia-estado/2023/03/13/complexo-da-mare-registrou-em-2022-mais-que-o-dobro-de-mortos-em-acoes-policiais.htm#:~:text=A%20Mar%C3%A9%20abriga%20140%20mil,Linha%20Vermelha%2C%20al%C3%A9m%20da%20Transcarioca.</t>
+  </si>
+  <si>
+    <t>Comunidade: Rocinha</t>
+  </si>
+  <si>
+    <t>População:</t>
+  </si>
+  <si>
+    <t>Empreendedores:</t>
+  </si>
+  <si>
+    <t>Empreendimentos:</t>
+  </si>
+  <si>
+    <t>https://gemini.google.com/app/18f2a4aa727334e2</t>
+  </si>
+  <si>
+    <t>Perfil Empreendedor:</t>
+  </si>
+  <si>
+    <t>%:</t>
+  </si>
+  <si>
+    <t>maior diversificação, com destaque para comércio e serviços</t>
+  </si>
+  <si>
+    <t>crescimento de empresas inovadoras e de impacto social</t>
+  </si>
+  <si>
+    <t>foco em atividades tradicionais como comércio e serviços, mas com iniciativas inovadoras na área de turismo</t>
+  </si>
+  <si>
+    <t>Compra online</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/economia/noticia/2022/12/14/61percent-dos-brasileiros-compram-mais-pela-internet-do-que-em-lojas-fisicas-aponta-estudo.ghtml</t>
+  </si>
+  <si>
+    <t>61% do brasileiros</t>
+  </si>
+  <si>
+    <t>https://www.ecommercebrasil.com.br/noticias/e-commerce-no-rio-de-janeiro-cresce-acima-da-da-media-da-regiao-sudeste-segundo-nielseniq-ebit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pedro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> morador do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>complexo do alemão</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>, empreendedor em inicio de carreira, utiliza a garagem para fazer reparos em celular para amigos e familiares, tem dificuldades para receber sua mercadoria (Risco, demora e alto valor de frete), tem vontade de expandir sua empresa e começar a vender eletroeletrônicos, bem como fazer reparos para além da rua onde mora, mas pra isso precisa de ajuda com o frete.</t>
+    </r>
+  </si>
+  <si>
+    <t>Negative trends from the environment</t>
+  </si>
+  <si>
+    <t>Positive trends from the environment</t>
+  </si>
+  <si>
+    <t>Headaches: Professional and work related issues</t>
+  </si>
+  <si>
+    <t>Opportunities: Professional and work related positive outcomes</t>
+  </si>
+  <si>
+    <t>Fears: personal issues</t>
+  </si>
+  <si>
+    <t>Hopes: personal goals and hopes</t>
+  </si>
+  <si>
+    <t>Risco na entrega</t>
+  </si>
+  <si>
+    <t>Tempo de entrega</t>
+  </si>
+  <si>
+    <t>Vender pela internet</t>
+  </si>
+  <si>
+    <t>Valor do frete</t>
+  </si>
+  <si>
+    <t>Empresas de entrega dentro da comunidade</t>
+  </si>
+  <si>
+    <t>Mkt boca a boca</t>
+  </si>
+  <si>
+    <t>Todos tem celular</t>
+  </si>
+  <si>
+    <t>Virar MEI</t>
+  </si>
+  <si>
+    <t>Proficionalizar</t>
+  </si>
+  <si>
+    <t>Dar garantia no serviço</t>
+  </si>
+  <si>
+    <t>Aumentar a venda se tivesse entrega</t>
+  </si>
+  <si>
+    <t>Muito pequeno para vender online</t>
+  </si>
+  <si>
+    <t>Clientes online não confiam</t>
+  </si>
+  <si>
+    <t>Quem garante que vou receber?</t>
+  </si>
+  <si>
+    <t>Conseguir melhor preço nas compraas de peças</t>
+  </si>
+  <si>
+    <t>Começar a vender celulares usados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alugar um galpão </t>
+  </si>
+  <si>
+    <t>Need</t>
+  </si>
+  <si>
+    <t>Aumentar o fluxo de clientes, conseguir vender online, receber as peças com menor prazo</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Construção do racional do problema a ser tratado</t>
+  </si>
+  <si>
+    <t>RJ segundo maior gerador de receita do Brasil</t>
+  </si>
+  <si>
+    <t>Porém é o quarto em vendas na Olist e muito atrás de SP</t>
+  </si>
+  <si>
+    <t>RJ é o segundo em compras, porém não compra de si mesmo</t>
+  </si>
+  <si>
+    <t>O que acarreta em review médio menor, o que seria diferente se comprasse do próprio estado</t>
+  </si>
+  <si>
+    <t>SP entregando no RJ tem a maior concentraçã de reviews 1</t>
+  </si>
+  <si>
+    <t>E é o primeiro em atrasos, fazendo com que os clientes do RJ percam a vontade comprar na plataforma</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>O que tb impacta no frete quase 20% acima do RJ</t>
+  </si>
+  <si>
+    <t>Aqui podemos colocar um resumo geral do que falamos até agora e incluir as noticias de mercado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinto falta de um slide que tenha a qtd de entrgadores por estado... Algo do tipo, % de entregadores por população </t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Construção do racional da solução</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Construção da persona</t>
+  </si>
+  <si>
+    <t>Pedro tem 27 anos e bla bla bla tudo na sheet Persona</t>
+  </si>
+  <si>
+    <t>Observamos que esse cenário de atrazo e frete alto se intensifica em comunidades</t>
+  </si>
+  <si>
+    <t>Aqui colocamos algum dos mapas do Flavio, mostrando que o maior problema é concentrado nas áreas de comunidades :) Mapa interativo :)</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Impacto financeiro da entrada da Olist nas comunidades</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Onde será implementado a solução</t>
+  </si>
+  <si>
+    <t>Levantar dados de mercado e população sobre as 3 maiores comunidades</t>
+  </si>
+  <si>
+    <t>Resumo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Info do google </t>
+  </si>
+  <si>
+    <t>3 pq decidimos</t>
+  </si>
+  <si>
+    <t>1 - Aumento de review</t>
+  </si>
+  <si>
+    <t>2 - menor tempo médio de entrega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - mais vendedores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Mapa Flavio </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,8 +605,21 @@
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +629,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,11 +654,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,15 +673,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -376,8 +719,418 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647656</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>86162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>81966</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>182912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235C521E-0F81-76E2-A5A3-307FCCC6C2AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5930856" y="714812"/>
+          <a:ext cx="4057110" cy="3240000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>86162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>261160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>182912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD60D542-F615-A00F-336C-7823AAB890D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="714812"/>
+          <a:ext cx="5544360" cy="3240000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100097</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>185650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7F79D6-0CC3-A273-43A0-6A82F5FB692D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4279900"/>
+          <a:ext cx="4062497" cy="3240000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>71248</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>185650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82230714-F32F-C1F8-498F-C09A0C8CCD94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6070601" y="4279900"/>
+          <a:ext cx="3906647" cy="3240000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>148196</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>96750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB50F303-D10E-0011-C184-D859710A0154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="8172450"/>
+          <a:ext cx="4110595" cy="3240000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>132880</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>96750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E380BB81-079B-B8AD-067F-FFDE8FA1D758}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="8172450"/>
+          <a:ext cx="4095280" cy="3240000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66768</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>141200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9906995F-2F4C-5572-7C86-0C14883F0A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12515850"/>
+          <a:ext cx="4029168" cy="3240000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="Imagine a bustling, vibrant scene in the heart of Rio de Janeiro's favelas, where a young entrepreneur, a 27-year-old local resident, has turned his passion for technology into a thriving business. He's set up a makeshift workshop under a brightly colored canopy, surrounded by a kaleidoscope of houses stacked on the hillside. This young man is busy at work, expertly dismantling a smartphone with precision tools spread out on his workbench. Behind him, the community life buzzes with energy; children play in the narrow streets, and neighbors chat amongst themselves. The sun casts a warm glow over the scene, highlighting the entrepreneurial spirit that thrives within the community.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3BA7EA7-94E7-6234-E45F-BE76DEF8C603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1758950" y="3981450"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>191905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369058AB-99BC-C4E2-E20E-4EEB8742A168}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="387350" y="2514600"/>
+          <a:ext cx="4737100" cy="4592455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -695,66 +1448,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1A6BF5-CF08-4F85-B9B8-8AE8CC720496}">
   <dimension ref="B2:Q55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.08203125" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -773,7 +1526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -781,55 +1534,55 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -847,199 +1600,199 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="7" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="7" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="7" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="8" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B39" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="8" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B40" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="8" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B41" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="8" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B42" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="8"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B51" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B52" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B53" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B54" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B55" s="2" t="s">
         <v>12</v>
       </c>
@@ -1069,4 +1822,948 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F960546A-E378-48ED-9102-39406A0D79DF}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A2:Q103"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:11" ht="25" x14ac:dyDescent="0.7">
+      <c r="A2" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="22" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K23" s="3"/>
+    </row>
+    <row r="40" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J60" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+    </row>
+    <row r="65" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+    </row>
+    <row r="76" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J76" s="13"/>
+      <c r="K76" s="15"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A79" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A83" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+    </row>
+    <row r="87" spans="1:8" ht="25" x14ac:dyDescent="0.7">
+      <c r="A87" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A89" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+    </row>
+    <row r="95" spans="1:8" ht="25" x14ac:dyDescent="0.7">
+      <c r="A95" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J97" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K97" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B101" t="s">
+        <v>127</v>
+      </c>
+      <c r="K101" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B102" t="s">
+        <v>122</v>
+      </c>
+      <c r="K102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B103" t="s">
+        <v>123</v>
+      </c>
+      <c r="K103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J60:Q62"/>
+    <mergeCell ref="A79:H81"/>
+    <mergeCell ref="A83:H85"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F686982-2787-4FB4-8C89-02CB7221CE78}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:Q52"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.08203125" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D20"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B51" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:Q12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E7B0E7-BDC1-48F2-9A52-1096DF143986}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B2:D40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.08203125" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B25" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B26" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B27" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{89BE474B-DF9F-465E-8483-59E8FF85F9FC}"/>
+    <hyperlink ref="B31" r:id="rId2" xr:uid="{7085B1A2-0541-47A1-8AAB-F6BC78556426}"/>
+    <hyperlink ref="B37" r:id="rId3" xr:uid="{14258FA4-CDDC-4F11-93D5-E5D51AFDAD1A}"/>
+    <hyperlink ref="B38" r:id="rId4" xr:uid="{DB096415-C8C3-4D6E-9EC7-D702B98164F1}"/>
+    <hyperlink ref="B39" r:id="rId5" xr:uid="{B41A6578-9D75-4DD1-82FE-95D592D9E085}"/>
+    <hyperlink ref="B32" r:id="rId6" xr:uid="{8399C092-9A50-43A1-A11C-8D8541DD220E}"/>
+    <hyperlink ref="B40" r:id="rId7" xr:uid="{54424D58-F5E9-4E31-807E-059839CAB334}"/>
+    <hyperlink ref="B33" r:id="rId8" xr:uid="{5925E653-79F6-4A28-B771-97F80C0BCAD4}"/>
+    <hyperlink ref="B3" r:id="rId9" xr:uid="{98B29774-E722-40A2-94C4-627BB7F1061F}"/>
+    <hyperlink ref="B4" r:id="rId10" xr:uid="{E254B35C-4E1A-4EEC-B979-48B356D58B12}"/>
+    <hyperlink ref="B5" r:id="rId11" xr:uid="{0039E712-3915-46E9-BABF-EB0D8766C756}"/>
+    <hyperlink ref="B6" r:id="rId12" xr:uid="{6CEF33A4-0908-4D59-9B79-FEBF9614B3B1}"/>
+    <hyperlink ref="B7" r:id="rId13" xr:uid="{AD15F81B-02EB-4163-B642-9A4B0C0C6EFA}"/>
+    <hyperlink ref="B8" r:id="rId14" xr:uid="{09EEA324-DFA2-4205-BB42-32AF57AE39DA}"/>
+    <hyperlink ref="B9" r:id="rId15" xr:uid="{13E1B151-8912-4ED5-A0E4-98FAE7339044}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B7F5FD-1057-4BBA-9D13-A3245262C8C7}">
+  <dimension ref="B2:D27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.08203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="7">
+        <v>67199</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="7">
+        <v>30000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="8">
+        <f>C7/C6</f>
+        <v>0.44643521480974419</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="7">
+        <v>180000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="7">
+        <v>22000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8">
+        <f>C13/C12</f>
+        <v>0.12222222222222222</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="7">
+        <v>140000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="7">
+        <v>15000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="8">
+        <f>C19/C18</f>
+        <v>0.10714285714285714</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C27" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C27" r:id="rId1" xr:uid="{50D00E61-C736-46FE-A46E-E01AB5198B94}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Solucao_Proposta_Grupo2.xlsx
+++ b/Solucao_Proposta_Grupo2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helio\OneDrive\Área de Trabalho\Git\PADS202401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F731C4-E22C-46D1-A7AC-463C9A37F6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF08049-FA9F-4E82-B5BB-DE6955BCC7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{150A6D86-5B11-4FFE-A69D-1FC88399B86F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{150A6D86-5B11-4FFE-A69D-1FC88399B86F}"/>
   </bookViews>
   <sheets>
     <sheet name="Agrupado" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="180">
   <si>
     <t>Vendedor</t>
   </si>
@@ -342,12 +342,6 @@
     <t>Compra online</t>
   </si>
   <si>
-    <t>https://g1.globo.com/economia/noticia/2022/12/14/61percent-dos-brasileiros-compram-mais-pela-internet-do-que-em-lojas-fisicas-aponta-estudo.ghtml</t>
-  </si>
-  <si>
-    <t>61% do brasileiros</t>
-  </si>
-  <si>
     <t>https://www.ecommercebrasil.com.br/noticias/e-commerce-no-rio-de-janeiro-cresce-acima-da-da-media-da-regiao-sudeste-segundo-nielseniq-ebit</t>
   </si>
   <si>
@@ -576,13 +570,176 @@
   <si>
     <t xml:space="preserve">1 Mapa Flavio </t>
   </si>
+  <si>
+    <t>https://www.meioemensagem.com.br/marketing/pesquisa-59-dos-moradores-de-favelas-fazem-compras-online</t>
+  </si>
+  <si>
+    <t>https://forbes.com.br/forbes-money/2023/07/62-dos-consumidores-fazem-ate-cinco-compras-online-por-mes-aponta-pesquisa/#:~:text=De%20acordo%20com%20a%20pesquisa,compra%20por%20m%C3%AAs%20na%20internet.</t>
+  </si>
+  <si>
+    <t>85% do brasileiros</t>
+  </si>
+  <si>
+    <t>https://veja.abril.com.br/coluna/radar/valor-gasto-com-compras-pela-internet-no-brasil-cresceu-10-em-2023</t>
+  </si>
+  <si>
+    <t>População economicamente ativa</t>
+  </si>
+  <si>
+    <t>https://agenciadenoticias.ibge.gov.br/agencia-noticias/2012-agencia-de-noticias/noticias/34438-populacao-cresce-mas-numero-de-pessoas-com-menos-de-30-anos-cai-5-4-de-2012-a-2021</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/fazenda/pt-br/central-de-conteudo/publicacoes/conjuntura-economica/emprego-e-renda/2022/informativo-pnad-jan2022.html#:~:text=Compara%C3%A7%C3%A3o%20Interanual%20%2D%20A%20taxa%20de,PO%20registrou%20alta%20de%209.4%25.</t>
+  </si>
+  <si>
+    <t>CENSO 2022</t>
+  </si>
+  <si>
+    <t>População entre 20 e 60 anos</t>
+  </si>
+  <si>
+    <t>https://educador.brasilescola.uol.com.br/estrategias-ensino/faixa-etaria-populacao-brasileira.htm#:~:text=Conforme%20dados%20do%20%C3%BAltimo%20recenseamento,3%25%20do%20total%20da%20popula%C3%A7%C3%A3o.</t>
+  </si>
+  <si>
+    <t>Calculo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Público potencial </t>
+  </si>
+  <si>
+    <t>Complexo Alemão</t>
+  </si>
+  <si>
+    <t>Rocinha</t>
+  </si>
+  <si>
+    <t>Renda da população</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/rj/rio-de-janeiro/noticia/2021/06/22/cidade-mais-rica-do-rj-tem-renda-media-16-vezes-maior-do-que-a-mais-pobre.ghtml</t>
+  </si>
+  <si>
+    <t>Renda média por cidade RJ</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/rj/rio-de-janeiro/globo-comunidade-rj/noticia/2023/12/10/metade-dos-moradores-das-favelas-cariocas-declara-ganhar-menos-de-um-salario-minimo.ghtml</t>
+  </si>
+  <si>
+    <t>https://cps.fgv.br/r-renda-capita-populacao-total-e-favelas-bairros-rio-de-janeiro</t>
+  </si>
+  <si>
+    <t>Renda percapita das comum</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Ticket Médio/Compra</t>
+  </si>
+  <si>
+    <t>RJ cresce mais que SP</t>
+  </si>
+  <si>
+    <t>https://forbes.com.br/forbes-money/2023/07/62-dos-consumidores-fazem-ate-cinco-compras-online-por-mes-aponta-pesquisa/</t>
+  </si>
+  <si>
+    <t>1 Compra</t>
+  </si>
+  <si>
+    <t>3 compras</t>
+  </si>
+  <si>
+    <t>Volume por mês</t>
+  </si>
+  <si>
+    <t>Volume por ano</t>
+  </si>
+  <si>
+    <t>Cenário atual</t>
+  </si>
+  <si>
+    <t>Cenário com mais pessoas comprando online (Brasil 85% / Comunidades 58%)</t>
+  </si>
+  <si>
+    <t>https://www1.folha.uol.com.br/folha-social-mais/2022/11/potencial-de-consumo-em-favelas-chega-a-r-167-bilhoes-em-2022.shtml#:~:text=O%20potencial%20de%20consumo%20nas,R%24%20167%20bilh%C3%B5es%20em%202022.</t>
+  </si>
+  <si>
+    <t>Potencial das comunidades</t>
+  </si>
+  <si>
+    <t>167Bi de consumo</t>
+  </si>
+  <si>
+    <t>Obs: População X % adultos no Brasil X % compra online nas comunidades X % que ganha + 1 salário minimo no RJ</t>
+  </si>
+  <si>
+    <t>Obs: aumento de pessoas comprando online de 59% para 70%</t>
+  </si>
+  <si>
+    <t>62% fazem até 5 compras/mês brasileiros</t>
+  </si>
+  <si>
+    <t>R$477 por compra brasileiros</t>
+  </si>
+  <si>
+    <t>59% dos moradores de favelas RJ</t>
+  </si>
+  <si>
+    <t>50% morador com menos 1 salário mini</t>
+  </si>
+  <si>
+    <t>Levantar um valor melhor</t>
+  </si>
+  <si>
+    <t>https://sejarelevante.fdc.org.br/renda-media-nas-favelas-e-de-r-3-mil-e-potencial-de-consumo-e-de-r-167-bilhoes/</t>
+  </si>
+  <si>
+    <t>3K de renda média</t>
+  </si>
+  <si>
+    <t>https://economia.uol.com.br/noticias/redacao/2023/10/31/consumo-favelas-brasil.htm?utm_source=substack&amp;utm_medium=email</t>
+  </si>
+  <si>
+    <t>Da renda média familiar</t>
+  </si>
+  <si>
+    <t>https://www.redesdamare.org.br/br/info/12/censo-mare</t>
+  </si>
+  <si>
+    <t>78% querem empreender nas comunidades</t>
+  </si>
+  <si>
+    <t>39% compra não chega</t>
+  </si>
+  <si>
+    <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://outraspalavras.net/wp-content/uploads/2023/03/Pesquisa-expofavela_datafavela.pdf</t>
+  </si>
+  <si>
+    <t>40% dos moradores de comunidade RJ tem negócio</t>
+  </si>
+  <si>
+    <t>https://olerj.camara.leg.br/retratos-da-intervencao/favelas-cariocas#:~:text=A%20favela%20na%20cidade%20do%20Rio%20de%20Janeiro&amp;text=O%20que%20faz%20da%20capital,4%25%20da%20popula%C3%A7%C3%A3o%20da%20regi%C3%A3o.</t>
+  </si>
+  <si>
+    <t>Consumo das favelas</t>
+  </si>
+  <si>
+    <t>50% adultos na maré</t>
+  </si>
+  <si>
+    <t>50% de adultos Brasil</t>
+  </si>
+  <si>
+    <t>Idade media 36 anos morador favela RJ (Brasil é 35)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -660,7 +817,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -679,26 +836,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1545,42 +1725,42 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B20" s="5"/>
@@ -1606,57 +1786,57 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B26" s="3" t="s">
@@ -1831,279 +2011,279 @@
   </sheetPr>
   <dimension ref="A2:Q103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="1:11" ht="25" x14ac:dyDescent="0.7">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="3"/>
     </row>
-    <row r="22" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>101</v>
+    <row r="22" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K23" s="3"/>
     </row>
-    <row r="40" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="15" t="s">
+    <row r="40" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="J40" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="K40" s="15" t="s">
+      <c r="B57" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J57" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="15" t="s">
+      <c r="K57" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J60" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="76" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J76" s="10"/>
+      <c r="K76" s="12"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A79" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A83" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="J57" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="K57" s="15" t="s">
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+    </row>
+    <row r="87" spans="1:8" ht="25" x14ac:dyDescent="0.7">
+      <c r="A87" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A89" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+    </row>
+    <row r="95" spans="1:8" ht="25" x14ac:dyDescent="0.7">
+      <c r="A95" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="J60" s="16" t="s">
+      <c r="B97" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J97" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K97" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
-    </row>
-    <row r="65" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-    </row>
-    <row r="76" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="J76" s="13"/>
-      <c r="K76" s="15"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A79" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A83" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-    </row>
-    <row r="87" spans="1:8" ht="25" x14ac:dyDescent="0.7">
-      <c r="A87" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A89" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-    </row>
-    <row r="95" spans="1:8" ht="25" x14ac:dyDescent="0.7">
-      <c r="A95" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="J97" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="K97" s="15" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K101" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K102" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K103" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2176,186 +2356,186 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
+      <c r="B9" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D20"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B41" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>79</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="H42" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s">
         <v>80</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
-        <v>81</v>
-      </c>
-      <c r="H44" s="12" t="s">
         <v>79</v>
+      </c>
+      <c r="H44" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B45" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>83</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="H46" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>84</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="H47" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>85</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="H48" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B51" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2590,18 +2770,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B7F5FD-1057-4BBA-9D13-A3245262C8C7}">
-  <dimension ref="B2:D27"/>
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="B2:H86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.08203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.4140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
@@ -2609,161 +2795,582 @@
         <v>45</v>
       </c>
     </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="3" t="s">
-        <v>51</v>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="7">
+        <v>67199</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="7">
+        <v>30000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="8">
+        <f>C6/C5</f>
+        <v>0.44643521480974419</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="7">
-        <v>67199</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="3" t="s">
+      <c r="C11" s="7">
+        <v>180000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="7">
+        <v>22000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="8">
+        <f>C12/C11</f>
+        <v>0.12222222222222222</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="7">
+        <v>140000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="7">
-        <v>30000</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C18" s="7">
+        <v>15000</v>
+      </c>
+      <c r="D18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="3" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="8">
-        <f>C7/C6</f>
-        <v>0.44643521480974419</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="3" t="s">
+      <c r="C19" s="8">
+        <f>C18/C17</f>
+        <v>0.10714285714285714</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="7">
-        <v>180000</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="7">
-        <v>22000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="8">
-        <f>C13/C12</f>
-        <v>0.12222222222222222</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="3" t="s">
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C35" s="28"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B43" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C49" s="9"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B51" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B53" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B55" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="17">
+        <f>C5+C11+C17</f>
+        <v>387199</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="15">
+        <f>ROUNDUP(C11*50%*59%*50%,0)</f>
+        <v>26550</v>
+      </c>
+      <c r="E56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="16">
+        <f>ROUNDUP(C5*50%*59%*50%,0)</f>
+        <v>9912</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="7">
-        <v>140000</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="7">
-        <v>15000</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="8">
-        <f>C19/C18</f>
-        <v>0.10714285714285714</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B24" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C27" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="C58" s="16">
+        <f>ROUNDUP(C17*50%*59%*50%,0)</f>
+        <v>20650</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B59" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="17">
+        <f>SUM(C56:C58)</f>
+        <v>57112</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B61" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="18">
+        <v>477</v>
+      </c>
+      <c r="D61" t="s">
+        <v>165</v>
+      </c>
+      <c r="F61" s="21">
+        <f>C61/3000</f>
+        <v>0.159</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B63" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="19">
+        <f>1-C64</f>
+        <v>0.38</v>
+      </c>
+      <c r="D63" s="20">
+        <f>(C59*C63)*C61</f>
+        <v>10352121.120000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B64" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="D64" s="20">
+        <f>(C59*C63)*C61*3</f>
+        <v>31056363.360000003</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B65" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="20">
+        <f>SUM(D63:D64)</f>
+        <v>41408484.480000004</v>
+      </c>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B66" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="22">
+        <f>D65*12</f>
+        <v>496901813.76000005</v>
+      </c>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B68" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B70" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="17">
+        <f>C55</f>
+        <v>387199</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="15">
+        <f>ROUNDUP(C11*50%*70%*50%,0)</f>
+        <v>31500</v>
+      </c>
+      <c r="E71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="16">
+        <f>ROUNDUP(C5*50%*70%*50%,0)</f>
+        <v>11760</v>
+      </c>
+      <c r="E72" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="16">
+        <f>ROUNDUP(C17*50%*70%*50%,0)</f>
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B74" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="17">
+        <f>SUM(C71:C73)</f>
+        <v>67760</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B76" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="18">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B78" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" s="19">
+        <f>1-C79</f>
+        <v>0.38</v>
+      </c>
+      <c r="D78" s="20">
+        <f>(C74*C78)*C76</f>
+        <v>12282177.6</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B79" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="D79" s="20">
+        <f>(C74*C78)*C76*3</f>
+        <v>36846532.799999997</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B80" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" s="20">
+        <f>SUM(D78:D79)</f>
+        <v>49128710.399999999</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B81" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" s="22">
+        <f>D80*12</f>
+        <v>589544524.79999995</v>
+      </c>
+      <c r="E81" s="23">
+        <f>D81-D66</f>
+        <v>92642711.039999902</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B86" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C27" r:id="rId1" xr:uid="{50D00E61-C736-46FE-A46E-E01AB5198B94}"/>
+    <hyperlink ref="C28" r:id="rId2" xr:uid="{E560502F-47D6-4C1D-837D-1DEEA2D8ED58}"/>
+    <hyperlink ref="C26" r:id="rId3" location=":~:text=De%20acordo%20com%20a%20pesquisa,compra%20por%20m%C3%AAs%20na%20internet." xr:uid="{E1FD38B9-D71A-4C89-87E0-DC86021A0977}"/>
+    <hyperlink ref="C29" r:id="rId4" xr:uid="{3087055F-4ECC-4400-986F-063B54DFC674}"/>
+    <hyperlink ref="C37" r:id="rId5" xr:uid="{FE621EFC-58E6-4F90-9599-E1D1BC2A5F21}"/>
+    <hyperlink ref="C38" r:id="rId6" location=":~:text=Compara%C3%A7%C3%A3o%20Interanual%20%2D%20A%20taxa%20de,PO%20registrou%20alta%20de%209.4%25." xr:uid="{3238AA2B-330D-469B-81E1-8E1A70B1C905}"/>
+    <hyperlink ref="C39" r:id="rId7" location=":~:text=Conforme%20dados%20do%20%C3%BAltimo%20recenseamento,3%25%20do%20total%20da%20popula%C3%A7%C3%A3o." xr:uid="{CD36EB17-0AF5-4DB3-8934-B429F113E1FE}"/>
+    <hyperlink ref="C44" r:id="rId8" xr:uid="{C05C5DD5-B9FA-4428-9B8F-8F14A328297D}"/>
+    <hyperlink ref="C45" r:id="rId9" xr:uid="{5E7C0262-73AB-4C45-859B-5D4F9BFDC7DD}"/>
+    <hyperlink ref="C46" r:id="rId10" xr:uid="{5F24632D-3FA8-4B07-BF18-3681E37EDC9B}"/>
+    <hyperlink ref="C30" r:id="rId11" xr:uid="{557783E8-DCE3-4084-8846-52578A131A05}"/>
+    <hyperlink ref="C23" r:id="rId12" location=":~:text=O%20potencial%20de%20consumo%20nas,R%24%20167%20bilh%C3%B5es%20em%202022." xr:uid="{1F1C6A58-A122-41A2-91DF-64247BE166E5}"/>
+    <hyperlink ref="C47" r:id="rId13" xr:uid="{F4177099-E0E8-4BF9-87DA-E02D639B456E}"/>
+    <hyperlink ref="C48" r:id="rId14" xr:uid="{80B58E8B-F0CA-485C-815B-9B229A80986C}"/>
+    <hyperlink ref="C31" r:id="rId15" xr:uid="{A0B894E5-6ADD-48A4-8467-F7A544B84B25}"/>
+    <hyperlink ref="C33" r:id="rId16" xr:uid="{B1EFC437-E740-4199-A649-234E32B0C7D1}"/>
+    <hyperlink ref="C40" r:id="rId17" location=":~:text=A%20favela%20na%20cidade%20do%20Rio%20de%20Janeiro&amp;text=O%20que%20faz%20da%20capital,4%25%20da%20popula%C3%A7%C3%A3o%20da%20regi%C3%A3o." xr:uid="{FDB7509B-4A53-4DAD-98A8-5BEDC4C07A9B}"/>
+    <hyperlink ref="C41" r:id="rId18" xr:uid="{3F60DDD7-41B2-4BF8-9608-C1A1501BAAC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Solucao_Proposta_Grupo2.xlsx
+++ b/Solucao_Proposta_Grupo2.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helio\OneDrive\Área de Trabalho\Git\PADS202401\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF08049-FA9F-4E82-B5BB-DE6955BCC7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BDDB8B-ADC9-4CAA-AE4B-EF9037BE2FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{150A6D86-5B11-4FFE-A69D-1FC88399B86F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="734" activeTab="5" xr2:uid="{150A6D86-5B11-4FFE-A69D-1FC88399B86F}"/>
   </bookViews>
   <sheets>
     <sheet name="Agrupado" sheetId="1" r:id="rId1"/>
     <sheet name="Slides" sheetId="5" r:id="rId2"/>
-    <sheet name="Persona" sheetId="2" r:id="rId3"/>
-    <sheet name="Infos_Mercado" sheetId="3" r:id="rId4"/>
-    <sheet name="Memoria_Calculo" sheetId="4" r:id="rId5"/>
+    <sheet name="Slide_Mercado" sheetId="6" r:id="rId3"/>
+    <sheet name="Persona" sheetId="2" r:id="rId4"/>
+    <sheet name="Infos_Mercado" sheetId="3" r:id="rId5"/>
+    <sheet name="Memoria_Calculo" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="175">
   <si>
     <t>Vendedor</t>
   </si>
@@ -460,117 +461,6 @@
     <t>Aumentar o fluxo de clientes, conseguir vender online, receber as peças com menor prazo</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Construção do racional do problema a ser tratado</t>
-  </si>
-  <si>
-    <t>RJ segundo maior gerador de receita do Brasil</t>
-  </si>
-  <si>
-    <t>Porém é o quarto em vendas na Olist e muito atrás de SP</t>
-  </si>
-  <si>
-    <t>RJ é o segundo em compras, porém não compra de si mesmo</t>
-  </si>
-  <si>
-    <t>O que acarreta em review médio menor, o que seria diferente se comprasse do próprio estado</t>
-  </si>
-  <si>
-    <t>SP entregando no RJ tem a maior concentraçã de reviews 1</t>
-  </si>
-  <si>
-    <t>E é o primeiro em atrasos, fazendo com que os clientes do RJ percam a vontade comprar na plataforma</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>O que tb impacta no frete quase 20% acima do RJ</t>
-  </si>
-  <si>
-    <t>Aqui podemos colocar um resumo geral do que falamos até agora e incluir as noticias de mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinto falta de um slide que tenha a qtd de entrgadores por estado... Algo do tipo, % de entregadores por população </t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>Construção do racional da solução</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Construção da persona</t>
-  </si>
-  <si>
-    <t>Pedro tem 27 anos e bla bla bla tudo na sheet Persona</t>
-  </si>
-  <si>
-    <t>Observamos que esse cenário de atrazo e frete alto se intensifica em comunidades</t>
-  </si>
-  <si>
-    <t>Aqui colocamos algum dos mapas do Flavio, mostrando que o maior problema é concentrado nas áreas de comunidades :) Mapa interativo :)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Impacto financeiro da entrada da Olist nas comunidades</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Onde será implementado a solução</t>
-  </si>
-  <si>
-    <t>Levantar dados de mercado e população sobre as 3 maiores comunidades</t>
-  </si>
-  <si>
-    <t>Resumo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Info do google </t>
-  </si>
-  <si>
-    <t>3 pq decidimos</t>
-  </si>
-  <si>
-    <t>1 - Aumento de review</t>
-  </si>
-  <si>
-    <t>2 - menor tempo médio de entrega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 - mais vendedores </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Mapa Flavio </t>
-  </si>
-  <si>
     <t>https://www.meioemensagem.com.br/marketing/pesquisa-59-dos-moradores-de-favelas-fazem-compras-online</t>
   </si>
   <si>
@@ -731,13 +621,110 @@
   </si>
   <si>
     <t>Idade media 36 anos morador favela RJ (Brasil é 35)</t>
+  </si>
+  <si>
+    <t>1 - Potêncial das comunidades</t>
+  </si>
+  <si>
+    <t>2 - Investimento de serviço de entrega focado nas comunidades</t>
+  </si>
+  <si>
+    <t>Aluguel</t>
+  </si>
+  <si>
+    <t>Loja de 250M2</t>
+  </si>
+  <si>
+    <t>https://www.lopes.com.br/imovel/REO638605/aluguel-loja-260-m2-rio-de-janeiro-meier?listFrom=busca&amp;listPosition=3</t>
+  </si>
+  <si>
+    <t>Iptu</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>10 Funcionários</t>
+  </si>
+  <si>
+    <t>+ Incargos mês</t>
+  </si>
+  <si>
+    <t>+ Incargos ano</t>
+  </si>
+  <si>
+    <t>IPCA futuro</t>
+  </si>
+  <si>
+    <t>Investimento Anual</t>
+  </si>
+  <si>
+    <t>2X Salário Minimo</t>
+  </si>
+  <si>
+    <t>5 - Gráfico mapa</t>
+  </si>
+  <si>
+    <t>4 - Valor frete</t>
+  </si>
+  <si>
+    <t>2 - Vendas baixas no RJ x demais estados</t>
+  </si>
+  <si>
+    <t>3 - Reviews nota 1</t>
+  </si>
+  <si>
+    <t>7 - Persona</t>
+  </si>
+  <si>
+    <t>6 - Mercado x comunidade</t>
+  </si>
+  <si>
+    <t>8 - Solução</t>
+  </si>
+  <si>
+    <t>https://mundologistica.com.br/noticias/carteiro-amigo-e-move3-otimizam-entrega-na-rocinha</t>
+  </si>
+  <si>
+    <t>https://noticias.uol.com.br/cotidiano/ultimas-noticias/2024/01/02/moradores-sem-cep.htm</t>
+  </si>
+  <si>
+    <t>1 - Potencial de 167Bi (Mercado)</t>
+  </si>
+  <si>
+    <t>Aluguel de caminhão pequno porte</t>
+  </si>
+  <si>
+    <t>https://blog.deltaglobal.com.br/locacao-de-caminhao-quando-fazer-quanto-custa/#:~:text=Em%20m%C3%A9dia%2C%20caminh%C3%B5es%20mais%20leves,de%20R%24%209.000%20por%20m%C3%AAs.</t>
+  </si>
+  <si>
+    <t>Investimento 3 CDs</t>
+  </si>
+  <si>
+    <t>Obs: População X % adultos nas favelas so RJ X % compra online nas comunidades X % que ganha + 1 salário minimo no RJ</t>
+  </si>
+  <si>
+    <t>Caixas de envio</t>
+  </si>
+  <si>
+    <t>https://gfembalagens.com.br/product-category/caixas-para-correios/caixa-de-papelao-envios/</t>
+  </si>
+  <si>
+    <t>Impostos</t>
+  </si>
+  <si>
+    <t>https://www.solucaotransportes.com.br/post/quais-os-impostos-do-transporte-de-cargas#:~:text=A%20transportadora%2C%20optante%20pelo%20Lucro,acima%20R%24750.000%2C00)%3B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;R$&quot;\ #,##0;[Red]\-&quot;R$&quot;\ #,##0"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
@@ -770,13 +757,13 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,12 +779,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +798,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -836,13 +817,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -866,19 +841,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -900,319 +888,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>647656</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>86162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>81966</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>182912</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235C521E-0F81-76E2-A5A3-307FCCC6C2AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5930856" y="714812"/>
-          <a:ext cx="4057110" cy="3240000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>86162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>261160</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>182912</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD60D542-F615-A00F-336C-7823AAB890D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="714812"/>
-          <a:ext cx="5544360" cy="3240000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>100097</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>185650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7F79D6-0CC3-A273-43A0-6A82F5FB692D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4279900"/>
-          <a:ext cx="4062497" cy="3240000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>127001</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>71248</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>185650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82230714-F32F-C1F8-498F-C09A0C8CCD94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6070601" y="4279900"/>
-          <a:ext cx="3906647" cy="3240000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>148196</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>96750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB50F303-D10E-0011-C184-D859710A0154}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="8172450"/>
-          <a:ext cx="4110595" cy="3240000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>132880</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>96750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E380BB81-079B-B8AD-067F-FFDE8FA1D758}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5943600" y="8172450"/>
-          <a:ext cx="4095280" cy="3240000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66768</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>141200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9906995F-2F4C-5572-7C86-0C14883F0A93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="12515850"/>
-          <a:ext cx="4029168" cy="3240000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1725,42 +1400,42 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B20" s="5"/>
@@ -1786,57 +1461,57 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B26" s="3" t="s">
@@ -2009,303 +1684,85 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A2:Q103"/>
+  <dimension ref="A2:A9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="25" x14ac:dyDescent="0.7">
-      <c r="A2" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="22" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="K23" s="3"/>
-    </row>
-    <row r="40" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K57" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="J60" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="25"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="76" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="J76" s="10"/>
-      <c r="K76" s="12"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A79" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A83" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
-    </row>
-    <row r="87" spans="1:8" ht="25" x14ac:dyDescent="0.7">
-      <c r="A87" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A89" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-    </row>
-    <row r="95" spans="1:8" ht="25" x14ac:dyDescent="0.7">
-      <c r="A95" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="J97" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K97" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B101" t="s">
-        <v>125</v>
-      </c>
-      <c r="K101" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B102" t="s">
-        <v>120</v>
-      </c>
-      <c r="K102" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B103" t="s">
-        <v>121</v>
-      </c>
-      <c r="K103" t="s">
-        <v>124</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="J60:Q62"/>
-    <mergeCell ref="A79:H81"/>
-    <mergeCell ref="A83:H85"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056A43A6-58C9-450D-8780-8BDE1011614A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F686982-2787-4FB4-8C89-02CB7221CE78}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:Q52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -2356,78 +1813,78 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D20"/>
@@ -2548,15 +2005,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E7B0E7-BDC1-48F2-9A52-1096DF143986}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B2:D40"/>
+  <dimension ref="B2:D45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -2743,6 +2200,16 @@
     <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B44" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B45" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2762,615 +2229,881 @@
     <hyperlink ref="B7" r:id="rId13" xr:uid="{AD15F81B-02EB-4163-B642-9A4B0C0C6EFA}"/>
     <hyperlink ref="B8" r:id="rId14" xr:uid="{09EEA324-DFA2-4205-BB42-32AF57AE39DA}"/>
     <hyperlink ref="B9" r:id="rId15" xr:uid="{13E1B151-8912-4ED5-A0E4-98FAE7339044}"/>
+    <hyperlink ref="B44" r:id="rId16" xr:uid="{2742C7ED-FDF2-43CE-9CA5-AE3BA22133F1}"/>
+    <hyperlink ref="B45" r:id="rId17" xr:uid="{4A51EC5E-1B1C-474B-90E7-EAF9E065BB49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B7F5FD-1057-4BBA-9D13-A3245262C8C7}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B2:H86"/>
+  <dimension ref="B2:H120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B2" s="3" t="s">
-        <v>45</v>
+    <row r="2" spans="2:4" ht="32.5" x14ac:dyDescent="0.85">
+      <c r="B2" s="20" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="7">
-        <v>67199</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="7">
-        <v>30000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="8">
-        <f>C6/C5</f>
-        <v>0.44643521480974419</v>
+        <v>52</v>
+      </c>
+      <c r="C7" s="7">
+        <v>67199</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="7">
+        <v>30000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="8">
+        <f>C8/C7</f>
+        <v>0.44643521480974419</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="3" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="3" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="7">
-        <v>180000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="7">
-        <v>22000</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="8">
-        <f>C12/C11</f>
-        <v>0.12222222222222222</v>
+        <v>52</v>
+      </c>
+      <c r="C13" s="7">
+        <v>180000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="7">
+        <v>22000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="8">
+        <f>C14/C13</f>
+        <v>0.12222222222222222</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B16" s="3" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="3" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="7">
-        <v>140000</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="7">
-        <v>15000</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="8">
-        <f>C18/C17</f>
-        <v>0.10714285714285714</v>
+        <v>52</v>
+      </c>
+      <c r="C19" s="7">
+        <v>140000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="7">
+        <v>15000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="8">
+        <f>C20/C19</f>
+        <v>0.10714285714285714</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22"/>
-    </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>156</v>
-      </c>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>126</v>
+        <v>91</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C35" s="28"/>
-    </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B36" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>131</v>
-      </c>
+      <c r="C37"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>132</v>
+      <c r="B38" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>170</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>141</v>
+      <c r="C43" s="9" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B45" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>143</v>
+      <c r="B45" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="C48" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C51" s="9"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B53" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B55" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="13">
+        <f>C7+C13+C19</f>
+        <v>387199</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="11">
+        <f>ROUNDUP(C13*57%*59%*50%,0)</f>
+        <v>30267</v>
+      </c>
+      <c r="E58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="12">
+        <f>ROUNDUP(C7*57%*59%*50%,0)</f>
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="12">
+        <f>ROUNDUP(C19*57%*59%*50%,0)</f>
+        <v>23541</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B61" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="13">
+        <f>SUM(C58:C60)</f>
+        <v>65108</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B63" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="14">
+        <v>477</v>
+      </c>
+      <c r="D63" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" s="17">
+        <f>C63/3000</f>
+        <v>0.159</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B65" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="15">
+        <f>1-C66</f>
+        <v>0.38</v>
+      </c>
+      <c r="D65" s="16">
+        <f>(C61*C65)*C63</f>
+        <v>11801476.08</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B66" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="15">
+        <v>0.62</v>
+      </c>
+      <c r="D66" s="16">
+        <f>(C61*C65)*C63*3</f>
+        <v>35404428.240000002</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B67" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="16">
+        <f>SUM(D65:D66)</f>
+        <v>47205904.32</v>
+      </c>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B68" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="18">
+        <f>D67*12</f>
+        <v>566470851.84000003</v>
+      </c>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B70" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B72" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="13">
+        <f>C57</f>
+        <v>387199</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="11">
+        <f>ROUNDUP(C13*57%*70%*50%,0)</f>
+        <v>35910</v>
+      </c>
+      <c r="E73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="12">
+        <f>ROUNDUP(C7*57%*70%*50%,0)</f>
+        <v>13407</v>
+      </c>
+      <c r="E74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="12">
+        <f>ROUNDUP(C19*57%*70%*50%,0)</f>
+        <v>27930</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="13">
+        <f>SUM(C73:C75)</f>
+        <v>77247</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B78" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="14">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B80" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" s="15">
+        <f>1-C81</f>
+        <v>0.38</v>
+      </c>
+      <c r="D80" s="16">
+        <f>(C76*C80)*C78</f>
+        <v>14001791.220000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B81" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="15">
+        <v>0.62</v>
+      </c>
+      <c r="D81" s="16">
+        <f>(C76*C80)*C78*3</f>
+        <v>42005373.660000004</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B82" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" s="16">
+        <f>SUM(D80:D81)</f>
+        <v>56007164.880000003</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B83" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83" s="18">
+        <f>D82*12</f>
+        <v>672085978.56000006</v>
+      </c>
+      <c r="E83" s="19">
+        <f>D83-D68</f>
+        <v>105615126.72000003</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="32.5" x14ac:dyDescent="0.85">
+      <c r="B86" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B88" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C89" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B90" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" s="21">
+        <v>5350</v>
+      </c>
+      <c r="D90" s="21">
+        <f>C90*12</f>
+        <v>64200</v>
+      </c>
+      <c r="E90" s="27">
+        <f>D90*3</f>
+        <v>192600</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B91" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" s="21">
+        <v>1850</v>
+      </c>
+      <c r="D91" s="21">
+        <f>C91</f>
+        <v>1850</v>
+      </c>
+      <c r="E91" s="27">
+        <f>D91*3</f>
+        <v>5550</v>
+      </c>
+      <c r="G91" s="27">
+        <f>C90+C91</f>
+        <v>7200</v>
+      </c>
+      <c r="H91" s="27">
+        <f>G91*3</f>
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B93" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F93" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B94" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C94" s="21">
+        <f>1412*2*10</f>
+        <v>28240</v>
+      </c>
+      <c r="D94" s="21">
+        <f>C94*13</f>
+        <v>367120</v>
+      </c>
+      <c r="E94" s="21">
+        <f>C94*1.7</f>
+        <v>48008</v>
+      </c>
+      <c r="F94" s="21">
+        <f>D94*1.7</f>
+        <v>624104</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B95" s="3"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C97" s="14">
+        <v>2024</v>
+      </c>
+      <c r="D97" s="14">
+        <v>2025</v>
+      </c>
+      <c r="E97" s="14">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B98" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C98" s="23">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="D98" s="23">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E98" s="23">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B100" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C49" s="9"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B51" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B53" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B55" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="17">
-        <f>C5+C11+C17</f>
-        <v>387199</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B56" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" s="15">
-        <f>ROUNDUP(C11*50%*59%*50%,0)</f>
-        <v>26550</v>
-      </c>
-      <c r="E56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B57" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" s="16">
-        <f>ROUNDUP(C5*50%*59%*50%,0)</f>
-        <v>9912</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="16">
-        <f>ROUNDUP(C17*50%*59%*50%,0)</f>
-        <v>20650</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B59" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" s="17">
-        <f>SUM(C56:C58)</f>
-        <v>57112</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B61" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C61" s="18">
-        <v>477</v>
-      </c>
-      <c r="D61" t="s">
-        <v>165</v>
-      </c>
-      <c r="F61" s="21">
-        <f>C61/3000</f>
-        <v>0.159</v>
-      </c>
-      <c r="G61" s="3" t="s">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C102" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C103" s="21">
+        <v>3000</v>
+      </c>
+      <c r="D103" s="21">
+        <f>C103*12</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B105" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B106" s="1">
+        <v>173</v>
+      </c>
+      <c r="C106" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B107" s="1">
+        <v>25</v>
+      </c>
+      <c r="C107" s="28">
+        <f>B106/B107*C106</f>
+        <v>34600</v>
+      </c>
+      <c r="D107" s="12">
+        <f>C107*12</f>
+        <v>415200</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B109" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C109" s="23">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C110" s="23">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C111" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C112" s="23">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C113" s="23">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C114" s="23">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C115" s="23">
+        <v>1.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C116" s="23">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C117" s="29">
+        <f>SUM(C109:C116)</f>
+        <v>0.22660000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B119" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C119" s="24">
+        <f>F94+D90+D103+D91+C107</f>
+        <v>760754</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B120" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B63" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="19">
-        <f>1-C64</f>
-        <v>0.38</v>
-      </c>
-      <c r="D63" s="20">
-        <f>(C59*C63)*C61</f>
-        <v>10352121.120000001</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B64" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" s="19">
-        <v>0.62</v>
-      </c>
-      <c r="D64" s="20">
-        <f>(C59*C63)*C61*3</f>
-        <v>31056363.360000003</v>
-      </c>
-      <c r="F64" s="7"/>
-      <c r="H64" s="15"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B65" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D65" s="20">
-        <f>SUM(D63:D64)</f>
-        <v>41408484.480000004</v>
-      </c>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B66" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D66" s="22">
-        <f>D65*12</f>
-        <v>496901813.76000005</v>
-      </c>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B68" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B70" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="17">
-        <f>C55</f>
-        <v>387199</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B71" t="s">
-        <v>138</v>
-      </c>
-      <c r="C71" s="15">
-        <f>ROUNDUP(C11*50%*70%*50%,0)</f>
-        <v>31500</v>
-      </c>
-      <c r="E71" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B72" t="s">
-        <v>139</v>
-      </c>
-      <c r="C72" s="16">
-        <f>ROUNDUP(C5*50%*70%*50%,0)</f>
-        <v>11760</v>
-      </c>
-      <c r="E72" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B73" t="s">
-        <v>49</v>
-      </c>
-      <c r="C73" s="16">
-        <f>ROUNDUP(C17*50%*70%*50%,0)</f>
-        <v>24500</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B74" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C74" s="17">
-        <f>SUM(C71:C73)</f>
-        <v>67760</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B76" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C76" s="18">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B78" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C78" s="19">
-        <f>1-C79</f>
-        <v>0.38</v>
-      </c>
-      <c r="D78" s="20">
-        <f>(C74*C78)*C76</f>
-        <v>12282177.6</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B79" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C79" s="19">
-        <v>0.62</v>
-      </c>
-      <c r="D79" s="20">
-        <f>(C74*C78)*C76*3</f>
-        <v>36846532.799999997</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B80" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D80" s="20">
-        <f>SUM(D78:D79)</f>
-        <v>49128710.399999999</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B81" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D81" s="22">
-        <f>D80*12</f>
-        <v>589544524.79999995</v>
-      </c>
-      <c r="E81" s="23">
-        <f>D81-D66</f>
-        <v>92642711.039999902</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B86" s="2"/>
+      <c r="C120" s="24">
+        <f>C119*3</f>
+        <v>2282262</v>
+      </c>
+      <c r="D120" s="24">
+        <f>C120*(1+C117)</f>
+        <v>2799422.5691999998</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1" xr:uid="{50D00E61-C736-46FE-A46E-E01AB5198B94}"/>
-    <hyperlink ref="C28" r:id="rId2" xr:uid="{E560502F-47D6-4C1D-837D-1DEEA2D8ED58}"/>
-    <hyperlink ref="C26" r:id="rId3" location=":~:text=De%20acordo%20com%20a%20pesquisa,compra%20por%20m%C3%AAs%20na%20internet." xr:uid="{E1FD38B9-D71A-4C89-87E0-DC86021A0977}"/>
-    <hyperlink ref="C29" r:id="rId4" xr:uid="{3087055F-4ECC-4400-986F-063B54DFC674}"/>
-    <hyperlink ref="C37" r:id="rId5" xr:uid="{FE621EFC-58E6-4F90-9599-E1D1BC2A5F21}"/>
-    <hyperlink ref="C38" r:id="rId6" location=":~:text=Compara%C3%A7%C3%A3o%20Interanual%20%2D%20A%20taxa%20de,PO%20registrou%20alta%20de%209.4%25." xr:uid="{3238AA2B-330D-469B-81E1-8E1A70B1C905}"/>
-    <hyperlink ref="C39" r:id="rId7" location=":~:text=Conforme%20dados%20do%20%C3%BAltimo%20recenseamento,3%25%20do%20total%20da%20popula%C3%A7%C3%A3o." xr:uid="{CD36EB17-0AF5-4DB3-8934-B429F113E1FE}"/>
-    <hyperlink ref="C44" r:id="rId8" xr:uid="{C05C5DD5-B9FA-4428-9B8F-8F14A328297D}"/>
-    <hyperlink ref="C45" r:id="rId9" xr:uid="{5E7C0262-73AB-4C45-859B-5D4F9BFDC7DD}"/>
-    <hyperlink ref="C46" r:id="rId10" xr:uid="{5F24632D-3FA8-4B07-BF18-3681E37EDC9B}"/>
-    <hyperlink ref="C30" r:id="rId11" xr:uid="{557783E8-DCE3-4084-8846-52578A131A05}"/>
-    <hyperlink ref="C23" r:id="rId12" location=":~:text=O%20potencial%20de%20consumo%20nas,R%24%20167%20bilh%C3%B5es%20em%202022." xr:uid="{1F1C6A58-A122-41A2-91DF-64247BE166E5}"/>
-    <hyperlink ref="C47" r:id="rId13" xr:uid="{F4177099-E0E8-4BF9-87DA-E02D639B456E}"/>
-    <hyperlink ref="C48" r:id="rId14" xr:uid="{80B58E8B-F0CA-485C-815B-9B229A80986C}"/>
-    <hyperlink ref="C31" r:id="rId15" xr:uid="{A0B894E5-6ADD-48A4-8467-F7A544B84B25}"/>
-    <hyperlink ref="C33" r:id="rId16" xr:uid="{B1EFC437-E740-4199-A649-234E32B0C7D1}"/>
-    <hyperlink ref="C40" r:id="rId17" location=":~:text=A%20favela%20na%20cidade%20do%20Rio%20de%20Janeiro&amp;text=O%20que%20faz%20da%20capital,4%25%20da%20popula%C3%A7%C3%A3o%20da%20regi%C3%A3o." xr:uid="{FDB7509B-4A53-4DAD-98A8-5BEDC4C07A9B}"/>
-    <hyperlink ref="C41" r:id="rId18" xr:uid="{3F60DDD7-41B2-4BF8-9608-C1A1501BAAC5}"/>
+    <hyperlink ref="C29" r:id="rId1" xr:uid="{50D00E61-C736-46FE-A46E-E01AB5198B94}"/>
+    <hyperlink ref="C30" r:id="rId2" xr:uid="{E560502F-47D6-4C1D-837D-1DEEA2D8ED58}"/>
+    <hyperlink ref="C28" r:id="rId3" location=":~:text=De%20acordo%20com%20a%20pesquisa,compra%20por%20m%C3%AAs%20na%20internet." xr:uid="{E1FD38B9-D71A-4C89-87E0-DC86021A0977}"/>
+    <hyperlink ref="C31" r:id="rId4" xr:uid="{3087055F-4ECC-4400-986F-063B54DFC674}"/>
+    <hyperlink ref="C39" r:id="rId5" xr:uid="{FE621EFC-58E6-4F90-9599-E1D1BC2A5F21}"/>
+    <hyperlink ref="C40" r:id="rId6" location=":~:text=Compara%C3%A7%C3%A3o%20Interanual%20%2D%20A%20taxa%20de,PO%20registrou%20alta%20de%209.4%25." xr:uid="{3238AA2B-330D-469B-81E1-8E1A70B1C905}"/>
+    <hyperlink ref="C41" r:id="rId7" location=":~:text=Conforme%20dados%20do%20%C3%BAltimo%20recenseamento,3%25%20do%20total%20da%20popula%C3%A7%C3%A3o." xr:uid="{CD36EB17-0AF5-4DB3-8934-B429F113E1FE}"/>
+    <hyperlink ref="C46" r:id="rId8" xr:uid="{C05C5DD5-B9FA-4428-9B8F-8F14A328297D}"/>
+    <hyperlink ref="C47" r:id="rId9" xr:uid="{5E7C0262-73AB-4C45-859B-5D4F9BFDC7DD}"/>
+    <hyperlink ref="C48" r:id="rId10" xr:uid="{5F24632D-3FA8-4B07-BF18-3681E37EDC9B}"/>
+    <hyperlink ref="C32" r:id="rId11" xr:uid="{557783E8-DCE3-4084-8846-52578A131A05}"/>
+    <hyperlink ref="C25" r:id="rId12" location=":~:text=O%20potencial%20de%20consumo%20nas,R%24%20167%20bilh%C3%B5es%20em%202022." xr:uid="{1F1C6A58-A122-41A2-91DF-64247BE166E5}"/>
+    <hyperlink ref="C49" r:id="rId13" xr:uid="{F4177099-E0E8-4BF9-87DA-E02D639B456E}"/>
+    <hyperlink ref="C50" r:id="rId14" xr:uid="{80B58E8B-F0CA-485C-815B-9B229A80986C}"/>
+    <hyperlink ref="C33" r:id="rId15" xr:uid="{A0B894E5-6ADD-48A4-8467-F7A544B84B25}"/>
+    <hyperlink ref="C35" r:id="rId16" xr:uid="{B1EFC437-E740-4199-A649-234E32B0C7D1}"/>
+    <hyperlink ref="C42" r:id="rId17" location=":~:text=A%20favela%20na%20cidade%20do%20Rio%20de%20Janeiro&amp;text=O%20que%20faz%20da%20capital,4%25%20da%20popula%C3%A7%C3%A3o%20da%20regi%C3%A3o." xr:uid="{FDB7509B-4A53-4DAD-98A8-5BEDC4C07A9B}"/>
+    <hyperlink ref="C43" r:id="rId18" xr:uid="{3F60DDD7-41B2-4BF8-9608-C1A1501BAAC5}"/>
+    <hyperlink ref="D100" r:id="rId19" location=":~:text=Em%20m%C3%A9dia%2C%20caminh%C3%B5es%20mais%20leves,de%20R%24%209.000%20por%20m%C3%AAs." xr:uid="{F411FBA0-DB1A-4EAB-AF9F-8886114C4325}"/>
+    <hyperlink ref="C105" r:id="rId20" xr:uid="{635E0101-915D-49C4-85C8-17D3AD77A321}"/>
+    <hyperlink ref="D109" r:id="rId21" location=":~:text=A%20transportadora%2C%20optante%20pelo%20Lucro,acima%20R%24750.000%2C00)%3B" xr:uid="{77C324C7-3A60-4271-B627-E6F5C24AFF14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>